--- a/new_planning.xlsx
+++ b/new_planning.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/new_planning.xlsx
+++ b/new_planning.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Bewoner</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Bewoner</t>
+          <t>Huisadres</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Huisadres</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>kookt</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>kookt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>aantal</t>
         </is>
@@ -479,75 +474,69 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WO_59_V_Els</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WO_59_V_Els</t>
+          <t>WO59</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>WO59</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VW13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>WO81</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WO_79_M_Rob</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WO_79_M_Rob</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>VW46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>WO7</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>WO79</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>VW46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>WO7</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>WO79</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Na</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -555,40 +544,37 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>VW_66_M_Lin</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VW_66_M_Lin</t>
+          <t>VW66</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>VW5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VW64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>VW66</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VW5</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>VW64</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>VW66</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Na</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -596,163 +582,139 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WO_9_V_Ell</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>VW_20_M_Wil</t>
+          <t>WO9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VW20</t>
+          <t>WO71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VW20</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VW51</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>WO36</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
+          <t>WO49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WO_33_V_Lou</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>WO_69_M_Han</t>
+          <t>WO33</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>WO69</t>
+          <t>WO14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WO69</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VW39</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>WO23</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
+          <t>WO79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WO_7_V_Mon</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>WO_24_M_Ray</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>WO32</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>8</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WO_32_V_Ing</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>VW_9_V_Rie</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WO7</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>WO79</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -760,110 +722,113 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WO_49_V_Van</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>WO49</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>WO71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>WO16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>WO49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>WO_9_V_Ell</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>WO9</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>WO71</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>WO16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>WO49</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WO_49_M_Joo</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WO_33_V_Lou</t>
+          <t>WO49</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>WO33</t>
+          <t>WO14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WO14</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>WO49</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>WO79</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VW_19_M_Wou</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>WO_7_V_Mon</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>WO7</t>
+          <t>VW20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WO7</t>
+          <t>WO36</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>WO79</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
           <t>Hoofd</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -871,403 +836,367 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WO_38_M_Jaa</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>VW_35_V_Ros</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>WO41</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>WO40</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>VW43</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>WO_1_V_Bir</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WO_32_V_Ing</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>WO32</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>WO32</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>7</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>VW_68_M_Chr</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>WO_49_V_Van</t>
+          <t>VW68</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>WO49</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WO71</t>
+          <t>WO61</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WO16</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>WO49</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
+          <t>WO21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>WO_7_M_San</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>VW_5_M_Car</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VW5</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VW5</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VW64</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>VW66</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>7</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>14</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>WO_57_M_Gij</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WO_49_M_Joo</t>
+          <t>WO57</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>WO49</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WO14</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WO67</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>WO49</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>7</v>
-      </c>
+          <t>WO81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>15</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>WO_61_V_Ger</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>VW_19_M_Wou</t>
+          <t>WO61</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>WO41</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>VW20</t>
+          <t>WO61</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>WO36</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>Hoofd</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>6</v>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>16</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VW_12_M_Pet</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WO_38_M_Jaa</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WO41</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>WO40</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
           <t>Hoofd</t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>8</v>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>17</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VW_15_V_Aim</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>WO_1_V_Bir</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>WO1</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>WO1</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>WO50</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>6</v>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>18</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>VW_51_V_Eli</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>VW_68_M_Chr</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VW68</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>WO61</t>
+          <t>WO36</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>WO21</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>19</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VW_66_V_And</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>WO_7_M_San</t>
+          <t>VW66</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>WO7</t>
+          <t>VW5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>VW64</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>WO7</t>
+          <t>VW66</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>VW8</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1275,239 +1204,221 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>20</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VW_12_V_Sja</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WO_57_M_Gij</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>WO57</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>WO81</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>21</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>WO_21_M_Han</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>WO_61_V_Ger</t>
+          <t>WO21</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>WO61</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WO41</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>WO61</t>
+          <t>WO21</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>VW43</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>5</v>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>22</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>WO_50_V_Nic</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VW_12_M_Pet</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>VW8</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>7</v>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>23</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>WO_79_V_Wie</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>VW_15_V_Aim</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VW15</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>VW15</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
           <t>Na</t>
         </is>
       </c>
-      <c r="I25" t="n">
-        <v>7</v>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>24</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>WO_57_V_May</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VW_51_V_Eli</t>
+          <t>WO57</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VW51</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>VW51</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>WO36</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>6</v>
-      </c>
+          <t>WO77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>25</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>VW_72_M_Pie</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>VW_66_V_And</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VW66</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>VW5</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>VW64</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>VW66</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1515,163 +1426,151 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>26</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>VW_43_V_Sjo</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>VW_12_V_Sja</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>WO14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>VW31</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>27</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>VW_13_M_Mar</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>WO_21_M_Han</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>WO21</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>WO21</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>6</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>28</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>VW_39_V_Ann</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>WO_41_V_Ann</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>WO41</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WO41</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>WO23</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>VW43</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>5</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>29</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>WO_32_M_Ber</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>WO_6_M_Mae</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>VW15</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1679,198 +1578,183 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>30</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>WO_33_M_Ari</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>WO_50_V_Nic</t>
+          <t>WO33</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>WO50</t>
+          <t>WO71</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>WO1</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>WO50</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>6</v>
-      </c>
+          <t>WO49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>31</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VW_56_V_Fra</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>WO_6_V_Jul</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>VW15</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>7</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>32</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>WO_81_V_Jan</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>WO_79_V_Wie</t>
+          <t>WO81</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>WO79</t>
+          <t>WO69</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>WO81</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>WO79</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
           <t>Na</t>
         </is>
       </c>
-      <c r="I34" t="n">
-        <v>8</v>
+      <c r="H34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>33</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>WO_48_M_Rob</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>WO_57_V_May</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>WO57</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>WO77</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>34</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>WO_16_M_Fre</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>VW_72_M_Pie</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>VW31</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
           <t>Hoofd</t>
         </is>
       </c>
-      <c r="I36" t="n">
+      <c r="H36" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1878,321 +1762,291 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>35</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>WO_48_V_Bir</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VW_43_V_Sjo</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VW43</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WO14</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>VW43</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>8</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>36</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>WO_40_V_Het</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VW_13_M_Mar</t>
+          <t>WO40</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>WO40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>VW43</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>8</v>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>37</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>WO_16_V_Lie</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>VW_39_V_Ann</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>WO71</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>WO49</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>WO23</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
           <t>Hoofd</t>
         </is>
       </c>
-      <c r="I39" t="n">
-        <v>8</v>
+      <c r="H39" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>38</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>VW_68_V_Mar</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>WO_52_V_Eli</t>
+          <t>VW68</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>WO1</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>WO50</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>6</v>
-      </c>
+          <t>WO23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>39</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>VW_43_M_Mar</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>WO_32_M_Ber</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>WO32</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>WO32</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
           <t>Na</t>
         </is>
       </c>
-      <c r="I41" t="n">
-        <v>7</v>
+      <c r="H41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>40</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>VW_31_M_Pau</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>WO_33_M_Ari</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>WO33</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>WO71</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>WO16</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>WO49</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>41</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>WO_32a_M_Too</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>VW_56_V_Fra</t>
+          <t>WO32a</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>VW56</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>WO27</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
+          <t>VW31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>42</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>WO_1_V_Deb</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>WO_81_V_Jan</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>WO81</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WO69</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>WO81</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2200,122 +2054,107 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>43</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>VW_31_V_Jan</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>WO_48_M_Rob</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>WO77</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>6</v>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>44</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>WO_32a_V_Gem</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>WO_16_M_Fre</t>
+          <t>WO32a</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>WO16</t>
+          <t>WO14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>WO16</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>VW8</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>6</v>
-      </c>
+          <t>WO27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>45</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>WO_81_M_Jan</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>WO_48_V_Bir</t>
+          <t>WO81</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>WO69</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>WO81</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>WO77</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2323,438 +2162,417 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>46</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>WO_21_V_Pau</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>WO_40_V_Het</t>
+          <t>WO21</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>WO40</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>WO21</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>WO40</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
           <t>Na</t>
         </is>
       </c>
-      <c r="I48" t="n">
-        <v>7</v>
+      <c r="H48" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>47</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>WO_38_V_Eek</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>WO_16_V_Lie</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>WO16</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WO71</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>WO16</t>
+          <t>WO40</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>WO49</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
           <t>Hoofd</t>
         </is>
       </c>
-      <c r="I49" t="n">
-        <v>6</v>
+      <c r="H49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>48</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>WO_40_V_Mar</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>VW_68_V_Mar</t>
+          <t>WO40</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VW68</t>
+          <t>WO41</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>WO40</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>WO23</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>49</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>VW_51_M_ Co</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>VW_43_M_Mar</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VW43</t>
+          <t>VW20</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>WO36</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>VW43</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>8</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>50</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>WO_36_V_Ren</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>VW_31_M_Pau</t>
+          <t>WO36</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VW31</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>WO36</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>VW31</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
           <t>Na</t>
         </is>
       </c>
-      <c r="I52" t="n">
-        <v>8</v>
+      <c r="H52" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>51</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>WO_23_M_Bar</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>WO_32a_M_Too</t>
+          <t>WO23</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>WO32a</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>WO23</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>VW31</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>52</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>VW_39_M_Bar</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>WO_1_V_Deb</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>WO1</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>WO1</t>
+          <t>WO23</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>WO50</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
           <t>Hoofd</t>
         </is>
       </c>
-      <c r="I54" t="n">
-        <v>6</v>
+      <c r="H54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>53</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>WO_77_M_Twa</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>VW_31_V_Jan</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VW31</t>
+          <t>VW5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>VW31</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
           <t>Na</t>
         </is>
       </c>
-      <c r="I55" t="n">
-        <v>8</v>
+      <c r="H55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>54</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>WO_27_M_Dan</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>WO_41_M_Wim</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>WO41</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>WO41</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>WO77</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>5</v>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>55</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>WO_77_V_Maa</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>WO_51_V_Dia</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>WO61</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>WO21</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>6</v>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>56</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>WO_27_V_Mar</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>VW_36_V_Dor</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>VW31</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2762,116 +2580,107 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>57</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>WO_59_M_Dré</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>WO_69_V_Ant</t>
+          <t>WO59</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>WO69</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>WO69</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>VW12</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
           <t>WO81</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>5</v>
-      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>58</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>WO_50_M_Fli</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>WO_32a_V_Gem</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>WO32a</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>WO14</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>WO27</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>59</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>WO_45_M_Die</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>WO_81_M_Jan</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>WO81</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>WO69</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>WO81</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2879,163 +2688,145 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>60</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>WO_61_M_Ren</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>WO_21_V_Pau</t>
+          <t>WO61</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>WO51</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>WO61</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>WO21</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>WO51</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>VW39</t>
-        </is>
-      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>WO21</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>6</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>61</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>VW_15_M_Ger</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>WO_38_V_Eek</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>WO40</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>8</v>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>62</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>WO_9_M_Phi</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>VW_20_V_Ber</t>
+          <t>WO9</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VW20</t>
+          <t>VW5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>VW20</t>
+          <t>VW64</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>VW51</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>WO36</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
+          <t>VW66</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>63</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>WO_53_M_Ola</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>WO_40_V_Mar</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>WO40</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>WO41</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>WO40</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3043,163 +2834,139 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>64</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>WO_25_V_Bet</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>VW_46_V_Bre</t>
+          <t>WO25</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>WO7</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>VW8</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
+          <t>WO40</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>65</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>WO_25_M_Bar</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>VW_51_M_ Co</t>
+          <t>WO25</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VW51</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>VW20</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>VW51</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>WO36</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>6</v>
-      </c>
+          <t>WO40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>66</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>VW_64_V_Mar</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>VW_41_M_Rem</t>
+          <t>VW64</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>VW5</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>VW64</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>VW66</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>WO32</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>7</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>67</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>WO_53_V_Pat</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>WO_36_V_Ren</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>WO36</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>VW51</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>WO36</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3207,204 +2974,189 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>68</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>VW_72_V_Len</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>VW_9_M_Rob</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>WO77</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>7</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>69</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>WO_67_V_Jea</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>WO_24_V_Jea</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>WO14</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>WO32</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>8</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>70</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>VW_8_V_Let</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>VW_36_M_Flo</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>WO69</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>VW31</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>8</v>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>71</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>VW_56_M_Ger</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>WO_23_M_Bar</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>WO23</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>WO23</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>6</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>72</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>VW_8_M_Fra</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>WO_51_M_Jan</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>WO61</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>WO21</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3412,40 +3164,37 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>73</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>VW_13_V_Con</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>VW_39_M_Bar</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>WO23</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
           <t>Hoofd</t>
         </is>
       </c>
-      <c r="I75" t="n">
+      <c r="H75" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3453,163 +3202,151 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>74</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>WO_45_V_Kar</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>WO_77_M_Twa</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>WO77</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>VW5</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>WO77</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>75</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>VW_19_V_Reg</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>WO_27_M_Dan</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>WO27</t>
+          <t>VW5</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>VW66</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>WO27</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>8</v>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>76</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>WO_23_V_Mon</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>WO_77_V_Maa</t>
+          <t>WO23</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>WO77</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>WO23</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>WO77</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
           <t>Na</t>
         </is>
       </c>
-      <c r="I78" t="n">
-        <v>7</v>
+      <c r="H78" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>77</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>WO_67_M_Rob</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>WO_14_V_Tru</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>WO14</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>WO14</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>WO79</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Voor</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3617,836 +3354,797 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>78</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>VW_20_M_Wil</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>VW_46_M_Jor</t>
+          <t>VW20</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>VW20</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>WO7</t>
+          <t>WO36</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>WO79</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
           <t>Voor</t>
         </is>
       </c>
-      <c r="I80" t="n">
-        <v>8</v>
+      <c r="H80" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>79</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>WO_69_M_Han</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>WO_27_V_Mar</t>
+          <t>WO69</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>WO27</t>
+          <t>WO69</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>WO23</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>WO27</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>80</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>WO_24_M_Ray</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>VW_41_V_Sus</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>WO40</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
           <t>Voor</t>
         </is>
       </c>
-      <c r="I82" t="n">
-        <v>7</v>
+      <c r="H82" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>81</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>VW_9_V_Rie</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>WO_59_M_Dré</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>WO59</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>WO81</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>82</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>VW_35_V_Ros</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>WO_56_M_Pau</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>WO27</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
           <t>Voor</t>
         </is>
       </c>
-      <c r="I84" t="n">
-        <v>6</v>
+      <c r="H84" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>83</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>VW_5_M_Car</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>WO_50_M_Fli</t>
+          <t>VW5</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>WO50</t>
+          <t>VW5</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>VW64</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>WO1</t>
+          <t>VW66</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>WO50</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>6</v>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>84</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>WO_41_V_Ann</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>WO_45_M_Die</t>
+          <t>WO41</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>WO41</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>VW15</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>85</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>WO_6_M_Mae</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>WO_52_M_Ton</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>WO1</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>WO50</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
           <t>Voor</t>
         </is>
       </c>
-      <c r="I87" t="n">
-        <v>6</v>
+      <c r="H87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>86</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>WO_6_V_Jul</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>WO_61_M_Ren</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>WO61</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>WO61</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>WO21</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>5</v>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>87</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>WO_52_V_Eli</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>VW_15_M_Ger</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>VW15</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>VW15</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>7</v>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>88</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>WO_41_M_Wim</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>WO_56_V_Deb</t>
+          <t>WO41</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>WO41</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>WO27</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
           <t>Voor</t>
         </is>
       </c>
-      <c r="I90" t="n">
-        <v>6</v>
+      <c r="H90" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
-        <v>89</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>WO_51_V_Dia</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>VW_35_M_Roe</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>WO61</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>WO21</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>VW43</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
           <t>Voor</t>
         </is>
       </c>
-      <c r="I91" t="n">
-        <v>7</v>
+      <c r="H91" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
-        <v>90</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>VW_36_V_Dor</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>WO_9_M_Phi</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>WO9</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>VW5</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>VW64</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>VW66</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
-        <v>91</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>WO_69_V_Ant</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>WO_85_M_Wil</t>
+          <t>WO69</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>WO69</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>WO81</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>WO27</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
           <t>Voor</t>
         </is>
       </c>
-      <c r="I93" t="n">
-        <v>7</v>
+      <c r="H93" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
-        <v>92</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>VW_20_V_Ber</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>WO_53_M_Ola</t>
+          <t>VW20</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>VW20</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>WO36</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>WO32</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>7</v>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
-        <v>93</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>VW_46_V_Bre</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>WO_25_V_Bet</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>WO25</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>WO40</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
-        <v>94</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>VW_41_M_Rem</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>WO_25_M_Bar</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>WO25</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>WO40</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
-        <v>95</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>VW_9_M_Rob</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>VW_64_V_Mar</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>VW64</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>VW5</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>VW64</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>VW66</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
-        <v>96</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>WO_24_V_Jea</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>WO_53_V_Pat</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>WO24</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>WO53</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>WO24</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>WO32</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>7</v>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
-        <v>97</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>VW_36_M_Flo</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>VW_72_V_Len</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>VW36</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>VW72</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>VW36</t>
-        </is>
-      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>VW31</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>6</v>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
-        <v>98</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>WO_51_M_Jan</t>
+        </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>WO_67_V_Jea</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>WO14</t>
+          <t>WO61</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>WO21</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>WO79</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4454,40 +4152,37 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
-        <v>99</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>WO_14_V_Tru</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>VW_8_V_Let</t>
+          <t>WO14</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>VW8</t>
+          <t>WO14</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>WO69</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>VW8</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4495,122 +4190,113 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
-        <v>100</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>VW_46_M_Jor</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>WO_71_M_Kar</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>WO71</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>WO71</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>WO16</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>WO49</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
           <t>Voor</t>
         </is>
       </c>
-      <c r="I102" t="n">
-        <v>6</v>
+      <c r="H102" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
-        <v>101</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>VW_41_V_Sus</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>VW_56_M_Ger</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>WO40</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>WO27</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
-        <v>8</v>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
-        <v>102</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>WO_56_M_Pau</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>VW_8_M_Fra</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VW8</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>VW8</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4618,204 +4304,189 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
-        <v>103</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>WO_52_M_Ton</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>VW_13_V_Con</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>VW43</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
-        <v>8</v>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
-        <v>104</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>WO_56_V_Deb</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>WO_85_V_Fem</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>VW51</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>WO36</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
           <t>Voor</t>
         </is>
       </c>
-      <c r="I106" t="n">
-        <v>7</v>
+      <c r="H106" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
-        <v>105</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>VW_35_M_Roe</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>WO_45_V_Kar</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>VW15</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>6</v>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
-        <v>106</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>WO_85_M_Wil</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>VW_19_V_Reg</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>VW5</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>VW66</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
-        <v>6</v>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
-        <v>107</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>WO_71_M_Kar</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>WO_23_V_Mon</t>
+          <t>WO71</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>WO23</t>
+          <t>WO71</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>WO49</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>WO23</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4823,81 +4494,75 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
-        <v>108</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>WO_85_V_Fem</t>
+        </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>WO_71_V_Mar</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>WO71</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>WO71</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>WO36</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>WO49</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
           <t>Voor</t>
         </is>
       </c>
-      <c r="I110" t="n">
-        <v>6</v>
+      <c r="H110" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
-        <v>109</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>WO_71_V_Mar</t>
+        </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>WO_67_M_Rob</t>
+          <t>WO71</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>WO71</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>WO49</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>VW15</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
         <v>6</v>
       </c>
     </row>

--- a/new_planning.xlsx
+++ b/new_planning.xlsx
@@ -486,12 +486,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -508,37 +508,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WO_79_M_Rob</t>
+          <t>WO_9_V_Ell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WO79</t>
+          <t>WO9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>VW5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WO7</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>WO79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
+          <t>WO49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -546,37 +540,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VW_66_M_Lin</t>
+          <t>WO_33_V_Lou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VW66</t>
+          <t>WO33</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VW5</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VW64</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VW66</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
+          <t>WO79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -584,27 +572,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WO_9_V_Ell</t>
+          <t>VW_68_M_Chr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WO9</t>
+          <t>VW68</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>WO71</t>
+          <t>WO41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WO16</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WO49</t>
+          <t>WO21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -616,27 +604,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WO_33_V_Lou</t>
+          <t>WO_57_M_Gij</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>WO33</t>
+          <t>WO57</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>WO14</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WO79</t>
+          <t>WO81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,37 +636,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WO_7_V_Mon</t>
+          <t>WO_57_V_May</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>WO7</t>
+          <t>WO57</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WO7</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WO79</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
+          <t>WO77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -686,37 +668,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WO_32_V_Ing</t>
+          <t>WO_33_M_Ari</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>WO32</t>
+          <t>WO33</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WO32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
+          <t>WO49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -724,12 +700,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WO_49_V_Van</t>
+          <t>VW_68_V_Mar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WO49</t>
+          <t>VW68</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -739,22 +715,16 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WO16</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>WO49</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
+          <t>WO23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,37 +732,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WO_49_M_Joo</t>
+          <t>WO_32a_M_Too</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WO49</t>
+          <t>WO32a</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>WO14</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>WO49</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
+          <t>VW31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -800,37 +764,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VW_19_M_Wou</t>
+          <t>WO_32a_V_Gem</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>WO32a</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VW20</t>
+          <t>WO14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WO36</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
+          <t>WO27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,37 +796,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WO_38_M_Jaa</t>
+          <t>WO_59_M_Dré</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>WO59</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>WO41</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>WO40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
+          <t>WO81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -876,37 +828,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WO_1_V_Bir</t>
+          <t>WO_9_M_Phi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WO1</t>
+          <t>WO9</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WO1</t>
+          <t>VW64</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>WO50</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
+          <t>VW66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -914,27 +860,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VW_68_M_Chr</t>
+          <t>WO_25_V_Bet</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>VW68</t>
+          <t>WO25</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WO61</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WO21</t>
+          <t>WO40</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -946,37 +892,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WO_7_M_San</t>
+          <t>WO_25_M_Bar</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WO7</t>
+          <t>WO25</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WO7</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VW8</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
+          <t>WO40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -984,31 +924,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WO_57_M_Gij</t>
+          <t>VW_20_M_Wil</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WO57</t>
+          <t>VW20</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>VW20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>WO61</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WO81</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+          <t>WO36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1016,32 +962,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WO_61_V_Ger</t>
+          <t>WO_69_M_Han</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WO61</t>
+          <t>WO69</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>WO41</t>
+          <t>WO69</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WO61</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VW43</t>
+          <t>WO23</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1054,36 +1000,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VW_12_M_Pet</t>
+          <t>WO_24_M_Ray</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VW8</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1092,32 +1038,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VW_15_V_Aim</t>
+          <t>VW_9_V_Rie</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>VW15</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>VW15</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1130,36 +1076,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VW_51_V_Eli</t>
+          <t>VW_35_V_Ros</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>VW51</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>VW51</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>WO36</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1168,36 +1114,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VW_66_V_And</t>
+          <t>VW_5_M_Car</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>VW5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VW5</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>VW64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>VW66</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VW5</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>VW64</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>VW66</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1206,36 +1152,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VW_12_V_Sja</t>
+          <t>WO_41_V_Ann</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>WO41</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>WO41</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>VW31</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1244,36 +1190,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WO_21_M_Han</t>
+          <t>WO_6_M_Mae</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>WO21</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>WO21</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1282,36 +1228,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WO_50_V_Nic</t>
+          <t>WO_6_V_Jul</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WO50</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WO1</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>WO50</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1320,36 +1266,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WO_79_V_Wie</t>
+          <t>WO_52_V_Eli</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>WO79</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>WO79</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1358,22 +1304,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WO_57_V_May</t>
+          <t>WO_41_M_Wim</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>WO57</t>
+          <t>WO41</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>WO41</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1381,8 +1327,14 @@
           <t>WO77</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1390,32 +1342,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VW_72_M_Pie</t>
+          <t>WO_51_V_Dia</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>VW31</t>
+          <t>WO21</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1428,32 +1380,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VW_43_V_Sjo</t>
+          <t>VW_36_V_Dor</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>VW43</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>WO14</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>VW43</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1466,36 +1418,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VW_13_M_Mar</t>
+          <t>WO_69_V_Ant</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>WO69</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>WO69</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>VW43</t>
+          <t>WO81</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1504,36 +1456,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VW_39_V_Ann</t>
+          <t>VW_20_V_Ber</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>VW20</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>VW20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>WO23</t>
+          <t>WO36</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1542,36 +1494,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WO_32_M_Ber</t>
+          <t>VW_46_V_Bre</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>WO32</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>WO32</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1580,31 +1532,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WO_33_M_Ari</t>
+          <t>VW_41_M_Rem</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>WO33</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>WO71</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WO16</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>WO49</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+          <t>WO32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1612,36 +1570,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VW_56_V_Fra</t>
+          <t>VW_9_M_Rob</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>WO27</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1650,36 +1608,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WO_81_V_Jan</t>
+          <t>WO_24_V_Jea</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>WO81</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>WO69</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>WO81</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1688,36 +1646,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WO_48_M_Rob</t>
+          <t>VW_36_M_Flo</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>WO77</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1726,32 +1684,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>WO_16_M_Fre</t>
+          <t>WO_51_M_Jan</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>WO16</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WO16</t>
+          <t>WO61</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>VW8</t>
+          <t>WO21</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1764,32 +1722,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WO_48_V_Bir</t>
+          <t>WO_14_V_Tru</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>WO14</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>WO14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>WO77</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -1802,36 +1760,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WO_40_V_Het</t>
+          <t>VW_46_M_Jor</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>WO40</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>WO40</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1840,36 +1798,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WO_16_V_Lie</t>
+          <t>VW_41_V_Sus</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>WO16</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>WO71</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WO16</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>WO49</t>
+          <t>WO40</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1878,31 +1836,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>VW_68_V_Mar</t>
+          <t>WO_56_M_Pau</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VW68</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>WO23</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+          <t>WO27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1910,36 +1874,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VW_43_M_Mar</t>
+          <t>WO_52_M_Ton</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>VW43</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>VW43</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1948,36 +1912,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>VW_31_M_Pau</t>
+          <t>WO_56_V_Deb</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>VW31</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>VW31</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -1986,31 +1950,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>WO_32a_M_Too</t>
+          <t>VW_35_M_Roe</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>WO32a</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>VW31</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+          <t>VW43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2018,36 +1988,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>WO_1_V_Deb</t>
+          <t>WO_85_M_Wil</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>WO1</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WO1</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>WO50</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2056,36 +2026,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>VW_31_V_Jan</t>
+          <t>WO_71_M_Kar</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VW31</t>
+          <t>WO71</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>WO71</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>VW31</t>
+          <t>WO49</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -2094,31 +2064,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>WO_32a_V_Gem</t>
+          <t>WO_85_V_Fem</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>WO32a</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>WO14</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>WO27</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+          <t>WO36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Voor</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2126,32 +2102,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WO_81_M_Jan</t>
+          <t>WO_71_V_Mar</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>WO81</t>
+          <t>WO71</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>WO69</t>
+          <t>WO71</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>WO81</t>
+          <t>WO49</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2164,32 +2140,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>WO_21_V_Pau</t>
+          <t>WO_7_V_Mon</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>WO21</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>WO21</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2202,12 +2178,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>WO_38_V_Eek</t>
+          <t>VW_19_M_Wou</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2217,12 +2193,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>WO40</t>
+          <t>WO36</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2231,7 +2207,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -2240,36 +2216,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WO_40_V_Mar</t>
+          <t>WO_38_M_Jaa</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>WO38</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>VW35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>WO38</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>WO40</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>WO41</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>WO38</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>WO40</t>
-        </is>
-      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2278,27 +2254,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>VW_51_M_ Co</t>
+          <t>WO_1_V_Bir</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>VW51</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VW20</t>
+          <t>WO71</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>VW51</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>WO36</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2316,36 +2292,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>WO_36_V_Ren</t>
+          <t>WO_7_M_San</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>WO36</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>VW51</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>WO36</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -2354,36 +2330,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>WO_23_M_Bar</t>
+          <t>WO_61_V_Ger</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>WO23</t>
+          <t>WO61</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>WO61</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>WO23</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2392,27 +2368,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>VW_39_M_Bar</t>
+          <t>VW_12_M_Pet</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>WO23</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2421,7 +2397,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2430,36 +2406,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>WO_77_M_Twa</t>
+          <t>VW_51_V_Eli</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>WO77</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VW5</t>
+          <t>WO14</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>WO77</t>
+          <t>WO36</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -2468,36 +2444,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>WO_27_M_Dan</t>
+          <t>VW_12_V_Sja</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>WO27</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>WO27</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2506,36 +2482,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>WO_77_V_Maa</t>
+          <t>VW_72_M_Pie</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>WO77</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>WO77</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -2544,32 +2520,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>WO_27_V_Mar</t>
+          <t>VW_13_M_Mar</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>WO27</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>WO27</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2582,31 +2558,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>WO_59_M_Dré</t>
+          <t>VW_39_V_Ann</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>WO59</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>WO81</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+          <t>WO23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2614,36 +2596,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>WO_50_M_Fli</t>
+          <t>VW_56_V_Fra</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>WO50</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>WO71</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>WO1</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>WO50</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -2652,27 +2634,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>WO_45_M_Die</t>
+          <t>WO_48_M_Rob</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>WO69</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>VW15</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2690,27 +2672,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>WO_61_M_Ren</t>
+          <t>WO_16_M_Fre</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>WO61</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>WO61</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>WO21</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2719,7 +2701,7 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -2728,36 +2710,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>VW_15_M_Ger</t>
+          <t>WO_48_V_Bir</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>VW15</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>WO71</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>VW15</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -2766,31 +2748,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>WO_9_M_Phi</t>
+          <t>WO_16_V_Lie</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>WO9</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VW5</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>VW64</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>VW66</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+          <t>WO49</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2798,27 +2786,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>WO_53_M_Ola</t>
+          <t>WO_1_V_Deb</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>WO32</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2827,7 +2815,7 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -2836,17 +2824,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>WO_25_V_Bet</t>
+          <t>WO_38_V_Eek</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>WO25</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2859,8 +2847,14 @@
           <t>WO40</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2868,12 +2862,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>WO_25_M_Bar</t>
+          <t>VW_51_M_ Co</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>WO25</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2883,16 +2877,22 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>WO40</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+          <t>WO36</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2900,27 +2900,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>VW_64_V_Mar</t>
+          <t>VW_39_M_Bar</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>VW64</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VW5</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>VW64</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>VW66</t>
+          <t>WO23</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -2938,27 +2938,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>WO_53_V_Pat</t>
+          <t>WO_45_M_Die</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>WO32</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -2976,27 +2976,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>VW_72_V_Len</t>
+          <t>WO_61_M_Ren</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>WO61</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>WO61</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>VW31</t>
+          <t>WO21</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -3014,27 +3014,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>WO_67_V_Jea</t>
+          <t>WO_53_M_Ola</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>WO14</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>WO79</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -3052,36 +3052,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VW_8_V_Let</t>
+          <t>VW_64_V_Mar</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>VW8</t>
+          <t>VW64</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>WO69</t>
+          <t>VW41</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>VW64</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>VW8</t>
+          <t>VW66</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -3090,27 +3090,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VW_56_M_Ger</t>
+          <t>WO_53_V_Pat</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>VW5</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>WO27</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -3128,32 +3128,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>VW_8_M_Fra</t>
+          <t>VW_72_V_Len</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>VW8</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>VW12</t>
+          <t>VW72</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>VW8</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -3166,27 +3166,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>VW_13_V_Con</t>
+          <t>WO_67_V_Jea</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>VW43</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -3204,27 +3204,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>WO_45_V_Kar</t>
+          <t>VW_56_M_Ger</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>VW56</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>VW15</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -3242,27 +3242,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>VW_19_V_Reg</t>
+          <t>VW_13_V_Con</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VW5</t>
+          <t>WO14</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>VW66</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -3280,32 +3280,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>WO_23_V_Mon</t>
+          <t>WO_45_V_Kar</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>WO23</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>WO23</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3318,27 +3318,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>WO_67_M_Rob</t>
+          <t>VW_19_V_Reg</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>VW15</t>
+          <t>VW66</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3356,36 +3356,36 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>VW_20_M_Wil</t>
+          <t>WO_67_M_Rob</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>VW20</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VW20</t>
+          <t>VW5</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VW51</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>WO36</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -3394,36 +3394,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>WO_69_M_Han</t>
+          <t>WO_79_M_Rob</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>WO69</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>WO69</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>VW39</t>
+          <t>WO7</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>WO23</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -3432,36 +3432,36 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>WO_24_M_Ray</t>
+          <t>VW_66_M_Lin</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>VW66</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>VW64</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>WO32</t>
+          <t>VW66</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
@@ -3470,32 +3470,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>VW_9_V_Rie</t>
+          <t>WO_32_V_Ing</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>WO7</t>
+          <t>VW51</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>WO79</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -3508,32 +3508,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>VW_35_V_Ros</t>
+          <t>WO_49_V_Van</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>WO49</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>VW20</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>WO16</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>VW43</t>
+          <t>WO49</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -3546,32 +3546,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>VW_5_M_Car</t>
+          <t>WO_49_M_Joo</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>VW5</t>
+          <t>WO49</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>VW5</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>VW64</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>VW66</t>
+          <t>WO49</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -3584,17 +3584,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>WO_41_V_Ann</t>
+          <t>VW_15_V_Aim</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>WO41</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>WO41</t>
+          <t>VW5</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3604,16 +3604,16 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>VW43</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -3622,36 +3622,36 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>WO_6_M_Mae</t>
+          <t>VW_66_V_And</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>VW66</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>VW64</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>VW15</t>
+          <t>VW66</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -3660,36 +3660,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>WO_6_V_Jul</t>
+          <t>WO_21_M_Han</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>WO21</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>WO6</t>
+          <t>WO41</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>WO45</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>VW15</t>
+          <t>WO21</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -3698,22 +3698,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>WO_52_V_Eli</t>
+          <t>WO_50_V_Nic</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>WO69</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>WO1</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3736,36 +3736,36 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>WO_41_M_Wim</t>
+          <t>WO_79_V_Wie</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>WO41</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>WO41</t>
+          <t>VW5</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>WO77</t>
+          <t>WO79</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -3774,36 +3774,36 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>WO_51_V_Dia</t>
+          <t>VW_43_V_Sjo</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>WO14</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>WO61</t>
+          <t>WO67</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>WO21</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -3812,36 +3812,36 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>VW_36_V_Dor</t>
+          <t>WO_32_M_Ber</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>VW35</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>WO53</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>VW31</t>
+          <t>WO32</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -3850,17 +3850,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>WO_69_V_Ant</t>
+          <t>WO_81_V_Jan</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>WO69</t>
+          <t>WO81</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>WO69</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3875,11 +3875,11 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
@@ -3888,36 +3888,36 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>VW_20_V_Ber</t>
+          <t>WO_40_V_Het</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>VW20</t>
+          <t>WO40</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VW20</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>VW51</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>WO36</t>
+          <t>WO40</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -3926,32 +3926,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>VW_46_V_Bre</t>
+          <t>VW_43_M_Mar</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>WO85</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>WO7</t>
+          <t>VW13</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>VW8</t>
+          <t>VW43</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -3964,36 +3964,36 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>VW_41_M_Rem</t>
+          <t>VW_31_M_Pau</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>WO32</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -4002,36 +4002,36 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>VW_9_M_Rob</t>
+          <t>VW_31_V_Jan</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>VW9</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>WO48</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>WO77</t>
+          <t>VW31</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -4040,36 +4040,36 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>WO_24_V_Jea</t>
+          <t>WO_81_M_Jan</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>WO81</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>WO24</t>
+          <t>VW36</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>WO53</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>WO32</t>
+          <t>WO81</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
@@ -4078,36 +4078,36 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>VW_36_M_Flo</t>
+          <t>WO_21_V_Pau</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>WO21</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>VW36</t>
+          <t>WO51</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>VW72</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>VW31</t>
+          <t>WO21</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
@@ -4116,36 +4116,36 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>WO_51_M_Jan</t>
+          <t>WO_40_V_Mar</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>WO40</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>WO51</t>
+          <t>WO41</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>WO61</t>
+          <t>WO38</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>WO21</t>
+          <t>WO40</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -4154,36 +4154,36 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>WO_14_V_Tru</t>
+          <t>WO_36_V_Ren</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>WO14</t>
+          <t>WO36</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>WO14</t>
+          <t>WO24</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>WO67</t>
+          <t>WO61</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>WO79</t>
+          <t>WO36</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -4192,36 +4192,36 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>VW_46_M_Jor</t>
+          <t>WO_23_M_Bar</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>WO23</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>VW46</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>WO7</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>WO79</t>
+          <t>WO23</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
@@ -4230,32 +4230,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>VW_41_V_Sus</t>
+          <t>WO_77_M_Twa</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VW41</t>
+          <t>VW20</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>WO38</t>
+          <t>VW19</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>WO40</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -4268,17 +4268,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>WO_56_M_Pau</t>
+          <t>WO_27_M_Dan</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>WO52</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4293,11 +4293,11 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
@@ -4306,36 +4306,36 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>WO_52_M_Ton</t>
+          <t>WO_77_V_Maa</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>WO52</t>
+          <t>VW5</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>WO1</t>
+          <t>WO48</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>WO50</t>
+          <t>WO77</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -4344,17 +4344,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>WO_56_V_Deb</t>
+          <t>WO_27_V_Mar</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>WO27</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>WO56</t>
+          <t>VW9</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4369,11 +4369,11 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
@@ -4382,36 +4382,36 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>VW_35_M_Roe</t>
+          <t>WO_50_M_Fli</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>VW35</t>
+          <t>WO56</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>VW13</t>
+          <t>WO1</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>VW43</t>
+          <t>WO50</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
@@ -4420,32 +4420,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>WO_85_M_Wil</t>
+          <t>VW_15_M_Ger</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>WO14</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>VW56</t>
+          <t>WO45</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>WO27</t>
+          <t>VW15</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -4458,32 +4458,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>WO_71_M_Kar</t>
+          <t>VW_8_V_Let</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>WO71</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>WO71</t>
+          <t>WO69</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>WO16</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>WO49</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -4496,36 +4496,36 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>WO_85_V_Fem</t>
+          <t>VW_8_M_Fra</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>WO85</t>
+          <t>VW46</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>VW51</t>
+          <t>VW12</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>WO36</t>
+          <t>VW8</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
@@ -4534,32 +4534,32 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>WO_71_V_Mar</t>
+          <t>WO_23_V_Mon</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>WO71</t>
+          <t>WO23</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>WO71</t>
+          <t>WO6</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>VW19</t>
+          <t>VW39</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>WO49</t>
+          <t>WO23</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H111" t="n">
